--- a/biology/Zoologie/Actinodactylella_blanchardi/Actinodactylella_blanchardi.xlsx
+++ b/biology/Zoologie/Actinodactylella_blanchardi/Actinodactylella_blanchardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinodactylella, Actinodactylellinae
 Actinodactylella blanchardi, unique représentant du genre Actinodactylella et de la sous-famille des Actinodactylellinae, est une espèce de vers plats d'eau douce de la famille des Temnocephalidae.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,16 +552,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les noms valides complets (avec auteur) de ces taxons sont[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les noms valides complets (avec auteur) de ces taxons sont :
 pour la sous-famille : Actinodactylellinae Benham, 1901 ;
 pour l'unique genre de la sous-famille : Actinodactylella Haswell, 1893 ;
-pour l'unique espèce du genre : Actinodactylella blanchardi Haswell, 1893.
-Reclassements
-Anciennement unique genre de la famille des Actinodactylellidae, Actinodactylella est maintenant dans la famille des Temnocephalidae, la famille des Actinodactylellidae ayant été reléguée en sous-famille des Actinodactylellinae[1].
-Synonymes
-D'après World Register of Marine Species                               (3 janvier 2024)[1] :
+pour l'unique espèce du genre : Actinodactylella blanchardi Haswell, 1893.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Actinodactylella_blanchardi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Actinodactylella_blanchardi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reclassements</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement unique genre de la famille des Actinodactylellidae, Actinodactylella est maintenant dans la famille des Temnocephalidae, la famille des Actinodactylellidae ayant été reléguée en sous-famille des Actinodactylellinae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actinodactylella_blanchardi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Actinodactylella_blanchardi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (3 janvier 2024) :
 Actinodactylellinae a pour synonyme Actinodactylellidae Benham, 1901, son ancien nom de famille ;
 Actinodactylella a pour synonyme Actinodactyla Haswell, 1893 ;
 Actinodactylella blanchardi a pour synonyme Actinodactylella haswelli Monticelli, 1898.</t>
